--- a/output.xlsx
+++ b/output.xlsx
@@ -449,16 +449,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -484,13 +484,13 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -513,16 +513,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -545,16 +545,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -577,16 +577,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -609,10 +609,10 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -673,16 +673,16 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>9</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -705,16 +705,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -737,16 +737,16 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -772,13 +772,13 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -804,16 +804,16 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15">
         <v>6</v>
@@ -865,19 +865,19 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -909,7 +909,7 @@
         <v>14</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -929,16 +929,16 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>9</v>
       </c>
       <c r="G18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -961,16 +961,16 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -993,16 +993,16 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -1025,16 +1025,16 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1089,16 +1089,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <v>7</v>
       </c>
       <c r="G23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -1121,19 +1121,19 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
         <v>7</v>
       </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
       <c r="G24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1297,13 +1297,13 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1358,16 +1358,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1390,16 +1390,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1451,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1489,13 +1489,13 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1518,16 +1518,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1585,13 +1585,13 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1617,16 +1617,16 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1646,16 +1646,16 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1678,19 +1678,19 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1710,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1722,7 +1722,7 @@
         <v>6</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1806,16 +1806,16 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1838,16 +1838,16 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1867,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1905,13 +1905,13 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2075,10 +2075,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2110,13 +2110,13 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -2142,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2174,13 +2174,13 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2206,13 +2206,13 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2235,10 +2235,10 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -2270,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -2299,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2334,13 +2334,13 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -2366,13 +2366,13 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2398,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2430,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2523,10 +2523,10 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2555,10 +2555,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2587,10 +2587,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -2622,13 +2622,13 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>5</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -2686,13 +2686,13 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -2750,13 +2750,13 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2782,13 +2782,13 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -443,25 +443,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -481,19 +481,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -507,25 +507,25 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -539,25 +539,25 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -577,19 +577,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -603,25 +603,25 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
       <c r="G8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -644,16 +644,16 @@
         <v>4</v>
       </c>
       <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>7</v>
-      </c>
-      <c r="G9">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -667,25 +667,25 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -699,25 +699,25 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -731,25 +731,25 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -763,22 +763,22 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -792,28 +792,28 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
         <v>8</v>
       </c>
-      <c r="F14">
-        <v>9</v>
-      </c>
       <c r="G14">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -827,25 +827,25 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -862,22 +862,22 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>6</v>
       </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
       <c r="F18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -955,28 +955,28 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -987,22 +987,22 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1118,22 +1118,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1256,25 +1256,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1320,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1361,16 +1361,16 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1393,16 +1393,16 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1422,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1518,16 +1518,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1544,25 +1544,25 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1617,16 +1617,16 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1640,25 +1640,25 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>7</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1707,19 +1707,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1736,19 +1736,19 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1803,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1835,22 +1835,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1867,22 +1867,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1902,16 +1902,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -2075,16 +2075,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2180,7 +2180,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2229,25 +2229,25 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2270,16 +2270,16 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2293,25 +2293,25 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2325,25 +2325,25 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2360,19 +2360,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2389,22 +2389,22 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2424,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2459,19 +2459,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2488,19 +2488,19 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2526,19 +2526,19 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2584,22 +2584,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2625,10 +2625,10 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2680,19 +2680,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2744,22 +2744,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -443,25 +443,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -481,19 +481,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -507,25 +507,25 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -539,25 +539,25 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -577,19 +577,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -603,25 +603,25 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -644,16 +644,16 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -667,25 +667,25 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -699,25 +699,25 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
       <c r="G11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -731,25 +731,25 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -763,22 +763,22 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -792,28 +792,28 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -827,25 +827,25 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -862,22 +862,22 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -955,28 +955,28 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -987,22 +987,22 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1118,22 +1118,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1256,25 +1256,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1320,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1361,16 +1361,16 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1393,16 +1393,16 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1422,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1518,16 +1518,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1544,25 +1544,25 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1617,16 +1617,16 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1640,25 +1640,25 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15">
         <v>7</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1707,19 +1707,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1736,19 +1736,19 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1803,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1835,22 +1835,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1867,22 +1867,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1902,16 +1902,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -2075,16 +2075,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2229,25 +2229,25 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2270,16 +2270,16 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2293,25 +2293,25 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2325,25 +2325,25 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2360,19 +2360,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2389,22 +2389,22 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2424,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2459,19 +2459,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2488,19 +2488,19 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2526,19 +2526,19 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2584,22 +2584,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2622,13 +2622,13 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2680,19 +2680,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2744,22 +2744,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2785,10 +2785,10 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>0</v>
